--- a/pred_ohlcv/54/2019-10-18 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-18 BAT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C2" t="n">
         <v>271</v>
       </c>
       <c r="D2" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E2" t="n">
         <v>271</v>
       </c>
       <c r="F2" t="n">
-        <v>1618</v>
+        <v>16116.2645</v>
       </c>
       <c r="G2" t="n">
-        <v>272.2</v>
+        <v>272.1166666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>271</v>
       </c>
       <c r="F3" t="n">
-        <v>419.1193</v>
+        <v>1618</v>
       </c>
       <c r="G3" t="n">
-        <v>272.25</v>
+        <v>272.2</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>271</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>419.1193</v>
       </c>
       <c r="G4" t="n">
-        <v>272.3</v>
+        <v>272.25</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F5" t="n">
-        <v>497.0111</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
         <v>272.3</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>497.0111</v>
       </c>
       <c r="G6" t="n">
-        <v>272.2666666666667</v>
+        <v>272.3</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>269</v>
       </c>
       <c r="F7" t="n">
-        <v>483.8605</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>272.2333333333333</v>
+        <v>272.2666666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F8" t="n">
-        <v>1845.6814</v>
+        <v>483.8605</v>
       </c>
       <c r="G8" t="n">
-        <v>272.1833333333333</v>
+        <v>272.2333333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C9" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D9" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E9" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F9" t="n">
-        <v>454.0191</v>
+        <v>1845.6814</v>
       </c>
       <c r="G9" t="n">
-        <v>272.1</v>
+        <v>272.1833333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E10" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F10" t="n">
-        <v>642.8108999999999</v>
+        <v>454.0191</v>
       </c>
       <c r="G10" t="n">
-        <v>272.0166666666667</v>
+        <v>272.1</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D11" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E11" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F11" t="n">
-        <v>848.7084</v>
+        <v>642.8108999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>271.9833333333333</v>
+        <v>272.0166666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C12" t="n">
         <v>271</v>
@@ -677,15 +712,18 @@
         <v>271</v>
       </c>
       <c r="E12" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F12" t="n">
-        <v>519.6826</v>
+        <v>848.7084</v>
       </c>
       <c r="G12" t="n">
-        <v>271.9666666666666</v>
+        <v>271.9833333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -697,21 +735,24 @@
         <v>271</v>
       </c>
       <c r="C13" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D13" t="n">
         <v>271</v>
       </c>
       <c r="E13" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F13" t="n">
-        <v>2238.732</v>
+        <v>519.6826</v>
       </c>
       <c r="G13" t="n">
-        <v>271.95</v>
+        <v>271.9666666666666</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C14" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D14" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E14" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F14" t="n">
-        <v>1389.5703</v>
+        <v>2238.732</v>
       </c>
       <c r="G14" t="n">
-        <v>271.9833333333333</v>
+        <v>271.95</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>273</v>
       </c>
       <c r="F15" t="n">
-        <v>688.2069</v>
+        <v>1389.5703</v>
       </c>
       <c r="G15" t="n">
-        <v>272.0166666666667</v>
+        <v>271.9833333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C16" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D16" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E16" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F16" t="n">
-        <v>614</v>
+        <v>688.2069</v>
       </c>
       <c r="G16" t="n">
-        <v>272.0333333333334</v>
+        <v>272.0166666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>271</v>
       </c>
       <c r="F17" t="n">
-        <v>124</v>
+        <v>614</v>
       </c>
       <c r="G17" t="n">
-        <v>272.0666666666667</v>
+        <v>272.0333333333334</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>271</v>
       </c>
       <c r="F18" t="n">
-        <v>3932.52</v>
+        <v>124</v>
       </c>
       <c r="G18" t="n">
         <v>272.0666666666667</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" t="n">
         <v>271</v>
       </c>
       <c r="D19" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E19" t="n">
         <v>271</v>
       </c>
       <c r="F19" t="n">
-        <v>2768.7177</v>
+        <v>3932.52</v>
       </c>
       <c r="G19" t="n">
-        <v>272.0833333333333</v>
+        <v>272.0666666666667</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C20" t="n">
         <v>271</v>
       </c>
       <c r="D20" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E20" t="n">
         <v>271</v>
       </c>
       <c r="F20" t="n">
-        <v>14.8999</v>
+        <v>2768.7177</v>
       </c>
       <c r="G20" t="n">
         <v>272.0833333333333</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C21" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D21" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E21" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F21" t="n">
         <v>14.8999</v>
       </c>
       <c r="G21" t="n">
-        <v>272.05</v>
+        <v>272.0833333333333</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D22" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E22" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F22" t="n">
-        <v>250.3502</v>
+        <v>14.8999</v>
       </c>
       <c r="G22" t="n">
-        <v>272.0166666666667</v>
+        <v>272.05</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C23" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D23" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E23" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F23" t="n">
-        <v>61</v>
+        <v>250.3502</v>
       </c>
       <c r="G23" t="n">
-        <v>272</v>
+        <v>272.0166666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C24" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D24" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E24" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F24" t="n">
-        <v>1997.1524</v>
+        <v>61</v>
       </c>
       <c r="G24" t="n">
-        <v>271.95</v>
+        <v>272</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C25" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D25" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E25" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F25" t="n">
-        <v>6349.6867</v>
+        <v>1997.1524</v>
       </c>
       <c r="G25" t="n">
-        <v>271.8166666666667</v>
+        <v>271.95</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>267</v>
       </c>
       <c r="F26" t="n">
-        <v>2462.8558</v>
+        <v>6349.6867</v>
       </c>
       <c r="G26" t="n">
-        <v>271.6833333333333</v>
+        <v>271.8166666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F27" t="n">
-        <v>793.9385</v>
+        <v>2462.8558</v>
       </c>
       <c r="G27" t="n">
-        <v>271.5666666666667</v>
+        <v>271.6833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1087,21 +1170,24 @@
         <v>266</v>
       </c>
       <c r="C28" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D28" t="n">
         <v>266</v>
       </c>
       <c r="E28" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F28" t="n">
-        <v>6604.89</v>
+        <v>793.9385</v>
       </c>
       <c r="G28" t="n">
-        <v>271.3833333333333</v>
+        <v>271.5666666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C29" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D29" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E29" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F29" t="n">
-        <v>1370.8118</v>
+        <v>6604.89</v>
       </c>
       <c r="G29" t="n">
-        <v>271.2</v>
+        <v>271.3833333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C30" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D30" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E30" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F30" t="n">
-        <v>363.9999</v>
+        <v>1370.8118</v>
       </c>
       <c r="G30" t="n">
-        <v>271.0333333333334</v>
+        <v>271.2</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>263</v>
       </c>
       <c r="F31" t="n">
-        <v>299.7668</v>
+        <v>363.9999</v>
       </c>
       <c r="G31" t="n">
-        <v>270.85</v>
+        <v>271.0333333333334</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C32" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D32" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E32" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F32" t="n">
-        <v>8973.577499999999</v>
+        <v>299.7668</v>
       </c>
       <c r="G32" t="n">
-        <v>270.65</v>
+        <v>270.85</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D33" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E33" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F33" t="n">
-        <v>15.5157</v>
+        <v>8973.577499999999</v>
       </c>
       <c r="G33" t="n">
-        <v>270.4833333333333</v>
+        <v>270.65</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C34" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D34" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E34" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F34" t="n">
-        <v>31.2861</v>
+        <v>15.5157</v>
       </c>
       <c r="G34" t="n">
-        <v>270.3166666666667</v>
+        <v>270.4833333333333</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>262</v>
       </c>
       <c r="F35" t="n">
-        <v>438.1511</v>
+        <v>31.2861</v>
       </c>
       <c r="G35" t="n">
-        <v>270.15</v>
+        <v>270.3166666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>262</v>
       </c>
       <c r="F36" t="n">
-        <v>10.3114</v>
+        <v>438.1511</v>
       </c>
       <c r="G36" t="n">
-        <v>269.9833333333333</v>
+        <v>270.15</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>262</v>
       </c>
       <c r="F37" t="n">
-        <v>37.7043</v>
+        <v>10.3114</v>
       </c>
       <c r="G37" t="n">
-        <v>269.8166666666667</v>
+        <v>269.9833333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C38" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D38" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E38" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F38" t="n">
-        <v>758.203</v>
+        <v>37.7043</v>
       </c>
       <c r="G38" t="n">
-        <v>269.6666666666667</v>
+        <v>269.8166666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C39" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D39" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E39" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F39" t="n">
-        <v>5309.9371</v>
+        <v>758.203</v>
       </c>
       <c r="G39" t="n">
-        <v>269.5333333333334</v>
+        <v>269.6666666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>264</v>
       </c>
       <c r="F40" t="n">
-        <v>1183.8496</v>
+        <v>5309.9371</v>
       </c>
       <c r="G40" t="n">
-        <v>269.4166666666667</v>
+        <v>269.5333333333334</v>
       </c>
       <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C41" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D41" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E41" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>1183.8496</v>
       </c>
       <c r="G41" t="n">
-        <v>269.2833333333334</v>
+        <v>269.4166666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C42" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D42" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E42" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F42" t="n">
-        <v>37.7358</v>
+        <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>269.1833333333333</v>
+        <v>269.2833333333334</v>
       </c>
       <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>265</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8297</v>
+        <v>37.7358</v>
       </c>
       <c r="G43" t="n">
-        <v>269.0833333333333</v>
+        <v>269.1833333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C44" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D44" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E44" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F44" t="n">
-        <v>344.4896</v>
+        <v>484.8297</v>
       </c>
       <c r="G44" t="n">
-        <v>268.9333333333333</v>
+        <v>269.0833333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C45" t="n">
         <v>263</v>
       </c>
       <c r="D45" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E45" t="n">
         <v>263</v>
       </c>
       <c r="F45" t="n">
-        <v>39.9</v>
+        <v>344.4896</v>
       </c>
       <c r="G45" t="n">
-        <v>268.7666666666667</v>
+        <v>268.9333333333333</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>263</v>
       </c>
       <c r="F46" t="n">
-        <v>5685.1193</v>
+        <v>39.9</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5833333333333</v>
+        <v>268.7666666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>263</v>
       </c>
       <c r="F47" t="n">
-        <v>1995</v>
+        <v>5685.1193</v>
       </c>
       <c r="G47" t="n">
-        <v>268.4</v>
+        <v>268.5833333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C48" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D48" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E48" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F48" t="n">
-        <v>487.2474</v>
+        <v>1995</v>
       </c>
       <c r="G48" t="n">
-        <v>268.2333333333333</v>
+        <v>268.4</v>
       </c>
       <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>264</v>
       </c>
       <c r="F49" t="n">
-        <v>1406.6919</v>
+        <v>487.2474</v>
       </c>
       <c r="G49" t="n">
-        <v>268.0666666666667</v>
+        <v>268.2333333333333</v>
       </c>
       <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C50" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D50" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E50" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F50" t="n">
-        <v>1996</v>
+        <v>1406.6919</v>
       </c>
       <c r="G50" t="n">
-        <v>267.8833333333333</v>
+        <v>268.0666666666667</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C51" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D51" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E51" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F51" t="n">
-        <v>10937.9499</v>
+        <v>1996</v>
       </c>
       <c r="G51" t="n">
-        <v>267.7</v>
+        <v>267.8833333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,21 +1866,24 @@
         <v>264</v>
       </c>
       <c r="C52" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D52" t="n">
         <v>264</v>
       </c>
       <c r="E52" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F52" t="n">
-        <v>15.5676</v>
+        <v>10937.9499</v>
       </c>
       <c r="G52" t="n">
-        <v>267.55</v>
+        <v>267.7</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,7 +1892,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C53" t="n">
         <v>264</v>
@@ -1743,15 +1901,18 @@
         <v>264</v>
       </c>
       <c r="E53" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F53" t="n">
-        <v>1592.9104</v>
+        <v>15.5676</v>
       </c>
       <c r="G53" t="n">
-        <v>267.3833333333333</v>
+        <v>267.55</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C54" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D54" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E54" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F54" t="n">
-        <v>342.4337</v>
+        <v>1592.9104</v>
       </c>
       <c r="G54" t="n">
-        <v>267.1833333333333</v>
+        <v>267.3833333333333</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C55" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D55" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E55" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F55" t="n">
-        <v>800</v>
+        <v>342.4337</v>
       </c>
       <c r="G55" t="n">
-        <v>266.9833333333333</v>
+        <v>267.1833333333333</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,21 +1982,24 @@
         <v>264</v>
       </c>
       <c r="C56" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D56" t="n">
         <v>264</v>
       </c>
       <c r="E56" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F56" t="n">
-        <v>973.5492</v>
+        <v>800</v>
       </c>
       <c r="G56" t="n">
-        <v>266.8333333333333</v>
+        <v>266.9833333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C57" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D57" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E57" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F57" t="n">
-        <v>761</v>
+        <v>973.5492</v>
       </c>
       <c r="G57" t="n">
-        <v>266.65</v>
+        <v>266.8333333333333</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>262</v>
       </c>
       <c r="F58" t="n">
-        <v>425.5075</v>
+        <v>761</v>
       </c>
       <c r="G58" t="n">
-        <v>266.4666666666666</v>
+        <v>266.65</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C59" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D59" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E59" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F59" t="n">
-        <v>262.32</v>
+        <v>425.5075</v>
       </c>
       <c r="G59" t="n">
-        <v>266.3166666666667</v>
+        <v>266.4666666666666</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C60" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D60" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E60" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F60" t="n">
-        <v>368.2878</v>
+        <v>262.32</v>
       </c>
       <c r="G60" t="n">
-        <v>266.1833333333333</v>
+        <v>266.3166666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1945,21 +2127,24 @@
         <v>262</v>
       </c>
       <c r="C61" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D61" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E61" t="n">
         <v>262</v>
       </c>
       <c r="F61" t="n">
-        <v>2530</v>
+        <v>368.2878</v>
       </c>
       <c r="G61" t="n">
-        <v>266.0333333333334</v>
+        <v>266.1833333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C62" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D62" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E62" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F62" t="n">
-        <v>3122.0658</v>
+        <v>2530</v>
       </c>
       <c r="G62" t="n">
-        <v>265.9</v>
+        <v>266.0333333333334</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C63" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D63" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E63" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F63" t="n">
-        <v>2600</v>
+        <v>3122.0658</v>
       </c>
       <c r="G63" t="n">
-        <v>265.75</v>
+        <v>265.9</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C64" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D64" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E64" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F64" t="n">
-        <v>7300</v>
+        <v>2600</v>
       </c>
       <c r="G64" t="n">
-        <v>265.6166666666667</v>
+        <v>265.75</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C65" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D65" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E65" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F65" t="n">
-        <v>1002.3176</v>
+        <v>7300</v>
       </c>
       <c r="G65" t="n">
-        <v>265.4833333333333</v>
+        <v>265.6166666666667</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>262</v>
       </c>
       <c r="F66" t="n">
-        <v>680</v>
+        <v>1002.3176</v>
       </c>
       <c r="G66" t="n">
-        <v>265.3666666666667</v>
+        <v>265.4833333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>262</v>
       </c>
       <c r="F67" t="n">
-        <v>28258.0837</v>
+        <v>680</v>
       </c>
       <c r="G67" t="n">
-        <v>265.25</v>
+        <v>265.3666666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>262</v>
       </c>
       <c r="F68" t="n">
-        <v>1502</v>
+        <v>28258.0837</v>
       </c>
       <c r="G68" t="n">
-        <v>265.1166666666667</v>
+        <v>265.25</v>
       </c>
       <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>262</v>
       </c>
       <c r="F69" t="n">
-        <v>669</v>
+        <v>1502</v>
       </c>
       <c r="G69" t="n">
-        <v>265.0166666666667</v>
+        <v>265.1166666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>262</v>
       </c>
       <c r="F70" t="n">
-        <v>1700</v>
+        <v>669</v>
       </c>
       <c r="G70" t="n">
-        <v>264.9</v>
+        <v>265.0166666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>262</v>
       </c>
       <c r="F71" t="n">
-        <v>2406.4797</v>
+        <v>1700</v>
       </c>
       <c r="G71" t="n">
-        <v>264.75</v>
+        <v>264.9</v>
       </c>
       <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>262</v>
       </c>
       <c r="F72" t="n">
-        <v>1000</v>
+        <v>2406.4797</v>
       </c>
       <c r="G72" t="n">
-        <v>264.6</v>
+        <v>264.75</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C73" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D73" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E73" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F73" t="n">
-        <v>3638.2992</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="n">
-        <v>264.5</v>
+        <v>264.6</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C74" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D74" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E74" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F74" t="n">
-        <v>1004</v>
+        <v>3638.2992</v>
       </c>
       <c r="G74" t="n">
-        <v>264.3666666666667</v>
+        <v>264.5</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C75" t="n">
         <v>265</v>
       </c>
       <c r="D75" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E75" t="n">
         <v>265</v>
       </c>
       <c r="F75" t="n">
-        <v>1887.7924</v>
+        <v>1004</v>
       </c>
       <c r="G75" t="n">
-        <v>264.2333333333333</v>
+        <v>264.3666666666667</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C76" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D76" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E76" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F76" t="n">
-        <v>554</v>
+        <v>1887.7924</v>
       </c>
       <c r="G76" t="n">
-        <v>264.1166666666667</v>
+        <v>264.2333333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>264</v>
       </c>
       <c r="F77" t="n">
-        <v>79.613</v>
+        <v>554</v>
       </c>
       <c r="G77" t="n">
-        <v>264</v>
+        <v>264.1166666666667</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C78" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D78" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E78" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F78" t="n">
-        <v>1148.6499</v>
+        <v>79.613</v>
       </c>
       <c r="G78" t="n">
-        <v>263.9</v>
+        <v>264</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C79" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D79" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E79" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>1148.6499</v>
       </c>
       <c r="G79" t="n">
-        <v>263.8166666666667</v>
+        <v>263.9</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C80" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D80" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E80" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F80" t="n">
-        <v>1681.5386</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>263.7166666666666</v>
+        <v>263.8166666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>265</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0001</v>
+        <v>1681.5386</v>
       </c>
       <c r="G81" t="n">
-        <v>263.65</v>
+        <v>263.7166666666666</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C82" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D82" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E82" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F82" t="n">
-        <v>1.0278</v>
+        <v>0.0001</v>
       </c>
       <c r="G82" t="n">
-        <v>263.55</v>
+        <v>263.65</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>264</v>
       </c>
       <c r="F83" t="n">
-        <v>311</v>
+        <v>1.0278</v>
       </c>
       <c r="G83" t="n">
-        <v>263.4333333333333</v>
+        <v>263.55</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>264</v>
       </c>
       <c r="F84" t="n">
-        <v>3315.7226</v>
+        <v>311</v>
       </c>
       <c r="G84" t="n">
-        <v>263.35</v>
+        <v>263.4333333333333</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>264</v>
       </c>
       <c r="F85" t="n">
-        <v>23.2645</v>
+        <v>3315.7226</v>
       </c>
       <c r="G85" t="n">
-        <v>263.3</v>
+        <v>263.35</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C86" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D86" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E86" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F86" t="n">
-        <v>6.0226</v>
+        <v>23.2645</v>
       </c>
       <c r="G86" t="n">
-        <v>263.2666666666667</v>
+        <v>263.3</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C87" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D87" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E87" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F87" t="n">
-        <v>711.583</v>
+        <v>6.0226</v>
       </c>
       <c r="G87" t="n">
-        <v>263.2333333333333</v>
+        <v>263.2666666666667</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C88" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D88" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E88" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F88" t="n">
-        <v>2.4</v>
+        <v>711.583</v>
       </c>
       <c r="G88" t="n">
-        <v>263.2666666666667</v>
+        <v>263.2333333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>265</v>
       </c>
       <c r="F89" t="n">
-        <v>41.84905660377358</v>
+        <v>2.4</v>
       </c>
       <c r="G89" t="n">
-        <v>263.2833333333334</v>
+        <v>263.2666666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C90" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D90" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E90" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F90" t="n">
-        <v>5.0189</v>
+        <v>41.84905660377358</v>
       </c>
       <c r="G90" t="n">
-        <v>263.3</v>
+        <v>263.2833333333334</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>264</v>
       </c>
       <c r="F91" t="n">
-        <v>2.7121</v>
+        <v>5.0189</v>
       </c>
       <c r="G91" t="n">
-        <v>263.3166666666667</v>
+        <v>263.3</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C92" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D92" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E92" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F92" t="n">
-        <v>299.8616</v>
+        <v>2.7121</v>
       </c>
       <c r="G92" t="n">
-        <v>263.3333333333333</v>
+        <v>263.3166666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C93" t="n">
         <v>262</v>
       </c>
       <c r="D93" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E93" t="n">
         <v>262</v>
       </c>
       <c r="F93" t="n">
-        <v>102746.3861</v>
+        <v>299.8616</v>
       </c>
       <c r="G93" t="n">
-        <v>263.3166666666667</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2803,21 +3084,24 @@
         <v>264</v>
       </c>
       <c r="C94" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D94" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E94" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F94" t="n">
-        <v>30959.5814</v>
+        <v>102746.3861</v>
       </c>
       <c r="G94" t="n">
-        <v>263.35</v>
+        <v>263.3166666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2829,21 +3113,24 @@
         <v>264</v>
       </c>
       <c r="C95" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D95" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E95" t="n">
         <v>263</v>
       </c>
       <c r="F95" t="n">
-        <v>3936.7877</v>
+        <v>30959.5814</v>
       </c>
       <c r="G95" t="n">
-        <v>263.3666666666667</v>
+        <v>263.35</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2855,21 +3142,24 @@
         <v>264</v>
       </c>
       <c r="C96" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E96" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F96" t="n">
-        <v>4127.738</v>
+        <v>3936.7877</v>
       </c>
       <c r="G96" t="n">
-        <v>263.4</v>
+        <v>263.3666666666667</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C97" t="n">
         <v>264</v>
@@ -2887,15 +3177,18 @@
         <v>264</v>
       </c>
       <c r="E97" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F97" t="n">
-        <v>25966.9355</v>
+        <v>4127.738</v>
       </c>
       <c r="G97" t="n">
-        <v>263.4333333333333</v>
+        <v>263.4</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C98" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D98" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E98" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F98" t="n">
-        <v>58.0716</v>
+        <v>25966.9355</v>
       </c>
       <c r="G98" t="n">
-        <v>263.4666666666666</v>
+        <v>263.4333333333333</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,21 +3229,24 @@
         <v>264</v>
       </c>
       <c r="C99" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D99" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E99" t="n">
         <v>264</v>
       </c>
       <c r="F99" t="n">
-        <v>137.0379</v>
+        <v>58.0716</v>
       </c>
       <c r="G99" t="n">
         <v>263.4666666666666</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2962,18 +3261,21 @@
         <v>264</v>
       </c>
       <c r="D100" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E100" t="n">
         <v>264</v>
       </c>
       <c r="F100" t="n">
-        <v>50.1639</v>
+        <v>137.0379</v>
       </c>
       <c r="G100" t="n">
         <v>263.4666666666666</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2988,18 +3290,21 @@
         <v>264</v>
       </c>
       <c r="D101" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E101" t="n">
         <v>264</v>
       </c>
       <c r="F101" t="n">
-        <v>40.4866</v>
+        <v>50.1639</v>
       </c>
       <c r="G101" t="n">
-        <v>263.4833333333333</v>
+        <v>263.4666666666666</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>264</v>
       </c>
       <c r="F102" t="n">
-        <v>60.7299</v>
+        <v>40.4866</v>
       </c>
       <c r="G102" t="n">
-        <v>263.4666666666666</v>
+        <v>263.4833333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3049,9 +3357,12 @@
         <v>60.7299</v>
       </c>
       <c r="G103" t="n">
-        <v>263.45</v>
+        <v>263.4666666666666</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>264</v>
       </c>
       <c r="F104" t="n">
-        <v>20.2433</v>
+        <v>60.7299</v>
       </c>
       <c r="G104" t="n">
-        <v>263.4666666666666</v>
+        <v>263.45</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,21 +3403,24 @@
         <v>264</v>
       </c>
       <c r="C105" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D105" t="n">
         <v>264</v>
       </c>
       <c r="E105" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F105" t="n">
-        <v>1990</v>
+        <v>20.2433</v>
       </c>
       <c r="G105" t="n">
         <v>263.4666666666666</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C106" t="n">
         <v>263</v>
       </c>
       <c r="D106" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E106" t="n">
         <v>263</v>
       </c>
       <c r="F106" t="n">
-        <v>48.124</v>
+        <v>1990</v>
       </c>
       <c r="G106" t="n">
         <v>263.4666666666666</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>263</v>
       </c>
       <c r="F107" t="n">
-        <v>20.3244</v>
+        <v>48.124</v>
       </c>
       <c r="G107" t="n">
         <v>263.4666666666666</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C108" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D108" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E108" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F108" t="n">
-        <v>25.4528</v>
+        <v>20.3244</v>
       </c>
       <c r="G108" t="n">
-        <v>263.4833333333333</v>
+        <v>263.4666666666666</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>265</v>
       </c>
       <c r="F109" t="n">
-        <v>510</v>
+        <v>25.4528</v>
       </c>
       <c r="G109" t="n">
-        <v>263.5</v>
+        <v>263.4833333333333</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>265</v>
       </c>
       <c r="F110" t="n">
-        <v>1627</v>
+        <v>510</v>
       </c>
       <c r="G110" t="n">
-        <v>263.5333333333334</v>
+        <v>263.5</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>265</v>
       </c>
       <c r="F111" t="n">
-        <v>10732.5289</v>
+        <v>1627</v>
       </c>
       <c r="G111" t="n">
-        <v>263.5833333333333</v>
+        <v>263.5333333333334</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C112" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D112" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E112" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F112" t="n">
-        <v>10094.21702089552</v>
+        <v>10732.5289</v>
       </c>
       <c r="G112" t="n">
-        <v>263.65</v>
+        <v>263.5833333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3297,21 +3635,24 @@
         <v>267</v>
       </c>
       <c r="C113" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D113" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E113" t="n">
         <v>267</v>
       </c>
       <c r="F113" t="n">
-        <v>8665.0936</v>
+        <v>10094.21702089552</v>
       </c>
       <c r="G113" t="n">
-        <v>263.7</v>
+        <v>263.65</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>267</v>
       </c>
       <c r="F114" t="n">
-        <v>21.8947</v>
+        <v>8665.0936</v>
       </c>
       <c r="G114" t="n">
-        <v>263.7833333333334</v>
+        <v>263.7</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>267</v>
       </c>
       <c r="F115" t="n">
-        <v>14.9921</v>
+        <v>21.8947</v>
       </c>
       <c r="G115" t="n">
-        <v>263.8833333333333</v>
+        <v>263.7833333333334</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C116" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D116" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E116" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F116" t="n">
-        <v>15.2094</v>
+        <v>14.9921</v>
       </c>
       <c r="G116" t="n">
-        <v>263.95</v>
+        <v>263.8833333333333</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C117" t="n">
         <v>268</v>
       </c>
       <c r="D117" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E117" t="n">
         <v>268</v>
       </c>
       <c r="F117" t="n">
-        <v>2094.7174</v>
+        <v>15.2094</v>
       </c>
       <c r="G117" t="n">
-        <v>264.05</v>
+        <v>263.95</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C118" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D118" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E118" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F118" t="n">
-        <v>25.3891</v>
+        <v>2094.7174</v>
       </c>
       <c r="G118" t="n">
-        <v>264.1833333333333</v>
+        <v>264.05</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>270</v>
       </c>
       <c r="F119" t="n">
-        <v>2240</v>
+        <v>25.3891</v>
       </c>
       <c r="G119" t="n">
-        <v>264.3</v>
+        <v>264.1833333333333</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3479,21 +3838,24 @@
         <v>270</v>
       </c>
       <c r="C120" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D120" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E120" t="n">
         <v>270</v>
       </c>
       <c r="F120" t="n">
-        <v>6320</v>
+        <v>2240</v>
       </c>
       <c r="G120" t="n">
-        <v>264.4333333333333</v>
+        <v>264.3</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C121" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D121" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E121" t="n">
         <v>270</v>
       </c>
       <c r="F121" t="n">
-        <v>2850</v>
+        <v>6320</v>
       </c>
       <c r="G121" t="n">
-        <v>264.5666666666667</v>
+        <v>264.4333333333333</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>273</v>
+      </c>
+      <c r="C122" t="n">
         <v>270</v>
       </c>
-      <c r="C122" t="n">
-        <v>272</v>
-      </c>
       <c r="D122" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E122" t="n">
         <v>270</v>
       </c>
       <c r="F122" t="n">
-        <v>8212</v>
+        <v>2850</v>
       </c>
       <c r="G122" t="n">
-        <v>264.7166666666666</v>
+        <v>264.5666666666667</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,25 +3922,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C123" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D123" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E123" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F123" t="n">
-        <v>2800.5005</v>
+        <v>8212</v>
       </c>
       <c r="G123" t="n">
-        <v>264.8166666666667</v>
+        <v>264.7166666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3583,22 +3954,25 @@
         <v>268</v>
       </c>
       <c r="C124" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D124" t="n">
         <v>268</v>
       </c>
       <c r="E124" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F124" t="n">
-        <v>23065.0043</v>
+        <v>2800.5005</v>
       </c>
       <c r="G124" t="n">
-        <v>264.8666666666667</v>
+        <v>264.8166666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C125" t="n">
         <v>266</v>
       </c>
       <c r="D125" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E125" t="n">
         <v>266</v>
       </c>
       <c r="F125" t="n">
-        <v>845.7159</v>
+        <v>23065.0043</v>
       </c>
       <c r="G125" t="n">
-        <v>264.9333333333333</v>
+        <v>264.8666666666667</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C126" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D126" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E126" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F126" t="n">
-        <v>1176.9773</v>
+        <v>845.7159</v>
       </c>
       <c r="G126" t="n">
-        <v>265.0166666666667</v>
+        <v>264.9333333333333</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C127" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D127" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E127" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F127" t="n">
-        <v>59.4954</v>
+        <v>1176.9773</v>
       </c>
       <c r="G127" t="n">
-        <v>265.0833333333333</v>
+        <v>265.0166666666667</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C128" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D128" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E128" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F128" t="n">
-        <v>15.4954</v>
+        <v>59.4954</v>
       </c>
       <c r="G128" t="n">
-        <v>265.1</v>
+        <v>265.0833333333333</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C129" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D129" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E129" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F129" t="n">
-        <v>2375.695</v>
+        <v>15.4954</v>
       </c>
       <c r="G129" t="n">
-        <v>265.1333333333333</v>
+        <v>265.1</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C130" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D130" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E130" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>2375.695</v>
       </c>
       <c r="G130" t="n">
-        <v>265.2</v>
+        <v>265.1333333333333</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C131" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D131" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E131" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F131" t="n">
-        <v>399.7437</v>
+        <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>265.2166666666666</v>
+        <v>265.2</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C132" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D132" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E132" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F132" t="n">
-        <v>570</v>
+        <v>399.7437</v>
       </c>
       <c r="G132" t="n">
         <v>265.2166666666666</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C133" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D133" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E133" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F133" t="n">
-        <v>17561.5601</v>
+        <v>570</v>
       </c>
       <c r="G133" t="n">
-        <v>265.1333333333333</v>
+        <v>265.2166666666666</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,544 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C134" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D134" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E134" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F134" t="n">
-        <v>2156.6067</v>
+        <v>17561.5601</v>
       </c>
       <c r="G134" t="n">
-        <v>265.05</v>
+        <v>265.1333333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>259</v>
-      </c>
-      <c r="C135" t="n">
-        <v>259</v>
-      </c>
-      <c r="D135" t="n">
-        <v>259</v>
-      </c>
-      <c r="E135" t="n">
-        <v>259</v>
-      </c>
-      <c r="F135" t="n">
-        <v>6439.3943</v>
-      </c>
-      <c r="G135" t="n">
-        <v>264.95</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>259</v>
-      </c>
-      <c r="C136" t="n">
-        <v>260</v>
-      </c>
-      <c r="D136" t="n">
-        <v>260</v>
-      </c>
-      <c r="E136" t="n">
-        <v>259</v>
-      </c>
-      <c r="F136" t="n">
-        <v>3798.459</v>
-      </c>
-      <c r="G136" t="n">
-        <v>264.8833333333333</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>259</v>
-      </c>
-      <c r="C137" t="n">
-        <v>259</v>
-      </c>
-      <c r="D137" t="n">
-        <v>259</v>
-      </c>
-      <c r="E137" t="n">
-        <v>259</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1902.1978</v>
-      </c>
-      <c r="G137" t="n">
-        <v>264.8</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>267</v>
-      </c>
-      <c r="C138" t="n">
-        <v>267</v>
-      </c>
-      <c r="D138" t="n">
-        <v>267</v>
-      </c>
-      <c r="E138" t="n">
-        <v>267</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1070</v>
-      </c>
-      <c r="G138" t="n">
-        <v>264.8333333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>267</v>
-      </c>
-      <c r="C139" t="n">
-        <v>267</v>
-      </c>
-      <c r="D139" t="n">
-        <v>267</v>
-      </c>
-      <c r="E139" t="n">
-        <v>267</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2624.1292</v>
-      </c>
-      <c r="G139" t="n">
-        <v>264.85</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>268</v>
-      </c>
-      <c r="C140" t="n">
-        <v>268</v>
-      </c>
-      <c r="D140" t="n">
-        <v>268</v>
-      </c>
-      <c r="E140" t="n">
-        <v>268</v>
-      </c>
-      <c r="F140" t="n">
-        <v>15.1399</v>
-      </c>
-      <c r="G140" t="n">
-        <v>264.9</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>268</v>
-      </c>
-      <c r="C141" t="n">
-        <v>268</v>
-      </c>
-      <c r="D141" t="n">
-        <v>268</v>
-      </c>
-      <c r="E141" t="n">
-        <v>268</v>
-      </c>
-      <c r="F141" t="n">
-        <v>633.7463</v>
-      </c>
-      <c r="G141" t="n">
-        <v>264.95</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>268</v>
-      </c>
-      <c r="C142" t="n">
-        <v>265</v>
-      </c>
-      <c r="D142" t="n">
-        <v>268</v>
-      </c>
-      <c r="E142" t="n">
-        <v>265</v>
-      </c>
-      <c r="F142" t="n">
-        <v>210.5548</v>
-      </c>
-      <c r="G142" t="n">
-        <v>264.9666666666666</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>267</v>
-      </c>
-      <c r="C143" t="n">
-        <v>267</v>
-      </c>
-      <c r="D143" t="n">
-        <v>267</v>
-      </c>
-      <c r="E143" t="n">
-        <v>267</v>
-      </c>
-      <c r="F143" t="n">
-        <v>42</v>
-      </c>
-      <c r="G143" t="n">
-        <v>265.0166666666667</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>267</v>
-      </c>
-      <c r="C144" t="n">
-        <v>266</v>
-      </c>
-      <c r="D144" t="n">
-        <v>267</v>
-      </c>
-      <c r="E144" t="n">
-        <v>266</v>
-      </c>
-      <c r="F144" t="n">
-        <v>974.5017</v>
-      </c>
-      <c r="G144" t="n">
-        <v>265.05</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>267</v>
-      </c>
-      <c r="C145" t="n">
-        <v>267</v>
-      </c>
-      <c r="D145" t="n">
-        <v>267</v>
-      </c>
-      <c r="E145" t="n">
-        <v>267</v>
-      </c>
-      <c r="F145" t="n">
-        <v>55.5526</v>
-      </c>
-      <c r="G145" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>267</v>
-      </c>
-      <c r="C146" t="n">
-        <v>267</v>
-      </c>
-      <c r="D146" t="n">
-        <v>267</v>
-      </c>
-      <c r="E146" t="n">
-        <v>267</v>
-      </c>
-      <c r="F146" t="n">
-        <v>639.9027</v>
-      </c>
-      <c r="G146" t="n">
-        <v>265.1333333333333</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>268</v>
-      </c>
-      <c r="C147" t="n">
-        <v>268</v>
-      </c>
-      <c r="D147" t="n">
-        <v>268</v>
-      </c>
-      <c r="E147" t="n">
-        <v>268</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1900</v>
-      </c>
-      <c r="G147" t="n">
-        <v>265.2</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>267</v>
-      </c>
-      <c r="C148" t="n">
-        <v>266</v>
-      </c>
-      <c r="D148" t="n">
-        <v>267</v>
-      </c>
-      <c r="E148" t="n">
-        <v>266</v>
-      </c>
-      <c r="F148" t="n">
-        <v>719.1013</v>
-      </c>
-      <c r="G148" t="n">
-        <v>265.2166666666666</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>266</v>
-      </c>
-      <c r="C149" t="n">
-        <v>265</v>
-      </c>
-      <c r="D149" t="n">
-        <v>266</v>
-      </c>
-      <c r="E149" t="n">
-        <v>265</v>
-      </c>
-      <c r="F149" t="n">
-        <v>756.2469</v>
-      </c>
-      <c r="G149" t="n">
-        <v>265.2166666666666</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>263</v>
-      </c>
-      <c r="C150" t="n">
-        <v>263</v>
-      </c>
-      <c r="D150" t="n">
-        <v>263</v>
-      </c>
-      <c r="E150" t="n">
-        <v>263</v>
-      </c>
-      <c r="F150" t="n">
-        <v>734.247</v>
-      </c>
-      <c r="G150" t="n">
-        <v>265.2</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>264</v>
-      </c>
-      <c r="C151" t="n">
-        <v>263</v>
-      </c>
-      <c r="D151" t="n">
-        <v>264</v>
-      </c>
-      <c r="E151" t="n">
-        <v>263</v>
-      </c>
-      <c r="F151" t="n">
-        <v>3629.2035</v>
-      </c>
-      <c r="G151" t="n">
-        <v>265.1833333333333</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>265</v>
-      </c>
-      <c r="C152" t="n">
-        <v>265</v>
-      </c>
-      <c r="D152" t="n">
-        <v>265</v>
-      </c>
-      <c r="E152" t="n">
-        <v>265</v>
-      </c>
-      <c r="F152" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="G152" t="n">
-        <v>265.2333333333333</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>264</v>
-      </c>
-      <c r="C153" t="n">
-        <v>264</v>
-      </c>
-      <c r="D153" t="n">
-        <v>264</v>
-      </c>
-      <c r="E153" t="n">
-        <v>264</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1229.0844</v>
-      </c>
-      <c r="G153" t="n">
-        <v>265.2666666666667</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>266</v>
-      </c>
-      <c r="C154" t="n">
-        <v>266</v>
-      </c>
-      <c r="D154" t="n">
-        <v>266</v>
-      </c>
-      <c r="E154" t="n">
-        <v>266</v>
-      </c>
-      <c r="F154" t="n">
-        <v>4.4774</v>
-      </c>
-      <c r="G154" t="n">
-        <v>265.3</v>
-      </c>
-      <c r="H154" t="n">
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
